--- a/data/trans_orig/P6605-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>37092</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27114</v>
+        <v>26654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48184</v>
+        <v>49083</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2100710646706456</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1535591787053898</v>
+        <v>0.1509521721509856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2728901174989908</v>
+        <v>0.277980601598997</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -765,19 +765,19 @@
         <v>42104</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32054</v>
+        <v>31591</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53506</v>
+        <v>52771</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2972616329134187</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2263063421063601</v>
+        <v>0.2230419957984135</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3777678533787391</v>
+        <v>0.3725769847419679</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -786,19 +786,19 @@
         <v>79196</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65207</v>
+        <v>66057</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94812</v>
+        <v>96943</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2488805028791414</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.204918697759421</v>
+        <v>0.2075895756252102</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2979543463240972</v>
+        <v>0.3046512327269345</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>39929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29933</v>
+        <v>28752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52776</v>
+        <v>51565</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2261379581387112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1695225028156384</v>
+        <v>0.1628349571833077</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2988931348872806</v>
+        <v>0.2920368580160234</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -836,19 +836,19 @@
         <v>30227</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21232</v>
+        <v>21892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40473</v>
+        <v>40923</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2134127576563585</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1499019561251742</v>
+        <v>0.1545604636730035</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2857466674336665</v>
+        <v>0.2889297557537424</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -857,19 +857,19 @@
         <v>70157</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56599</v>
+        <v>55639</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87692</v>
+        <v>86782</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2204738376751825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1778664647334793</v>
+        <v>0.1748496828100038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2755808896169384</v>
+        <v>0.2727185696428255</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>52553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41182</v>
+        <v>39386</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67662</v>
+        <v>66228</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2976283508269473</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2332315383871855</v>
+        <v>0.2230631360353753</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3831984619213248</v>
+        <v>0.3750780836690321</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -907,19 +907,19 @@
         <v>37086</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27960</v>
+        <v>26830</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48401</v>
+        <v>49201</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2618360530612495</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1974060403109807</v>
+        <v>0.18942485897858</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3417239535738402</v>
+        <v>0.3473749155605235</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>86</v>
@@ -928,19 +928,19 @@
         <v>89638</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>73893</v>
+        <v>73766</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>106486</v>
+        <v>104960</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2816968229510171</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2322157655571568</v>
+        <v>0.231816229752692</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3346410002141164</v>
+        <v>0.3298454458121529</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>46997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34824</v>
+        <v>35169</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59855</v>
+        <v>59629</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2661626263636959</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1972241403415375</v>
+        <v>0.1991770106921334</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.338983794377669</v>
+        <v>0.3377055170989938</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -978,19 +978,19 @@
         <v>32221</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23322</v>
+        <v>22909</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43007</v>
+        <v>43292</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2274895563689734</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1646598188065584</v>
+        <v>0.1617443490878339</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3036379983374201</v>
+        <v>0.3056541651662713</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>77</v>
@@ -999,19 +999,19 @@
         <v>79218</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64758</v>
+        <v>65384</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>96399</v>
+        <v>95340</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.248948836494659</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2035071840542743</v>
+        <v>0.2054747820969845</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3029433410449925</v>
+        <v>0.2996154418333342</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>140421</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>121894</v>
+        <v>118984</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>163701</v>
+        <v>160931</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2543717175300478</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2208109371131522</v>
+        <v>0.2155381566825642</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2965432542145187</v>
+        <v>0.2915246383642333</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>112</v>
@@ -1124,19 +1124,19 @@
         <v>117108</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>100785</v>
+        <v>99206</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>134757</v>
+        <v>134689</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3439796533553894</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2960346099292394</v>
+        <v>0.2913976525049982</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3958220460537457</v>
+        <v>0.3956225436849034</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>245</v>
@@ -1145,19 +1145,19 @@
         <v>257529</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>229355</v>
+        <v>232623</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>284448</v>
+        <v>287408</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2885539462289221</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2569865265010442</v>
+        <v>0.2606478070650471</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.318715949272184</v>
+        <v>0.3220331923321113</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>134172</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114777</v>
+        <v>114283</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>157085</v>
+        <v>156966</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2430511370453393</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2079177461078323</v>
+        <v>0.2070229071753127</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2845577279794073</v>
+        <v>0.2843431312671151</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -1195,19 +1195,19 @@
         <v>75504</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60409</v>
+        <v>59938</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92353</v>
+        <v>91546</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2217764031361277</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.177438121232159</v>
+        <v>0.1760560474971722</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2712673408406243</v>
+        <v>0.2688972165280284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>199</v>
@@ -1216,19 +1216,19 @@
         <v>209675</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>186870</v>
+        <v>183457</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>238243</v>
+        <v>236144</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2349355855230968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2093829367101106</v>
+        <v>0.2055591266150054</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2669443709680558</v>
+        <v>0.2645927148884211</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>148646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>127317</v>
+        <v>126845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>170774</v>
+        <v>168456</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.269271563586709</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2306331284588814</v>
+        <v>0.2297794664535282</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3093565714885869</v>
+        <v>0.3051569839742404</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>80</v>
@@ -1266,19 +1266,19 @@
         <v>87465</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73058</v>
+        <v>71992</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>105512</v>
+        <v>105548</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2569107307610831</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2145932066511619</v>
+        <v>0.2114606545183572</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3099197253242514</v>
+        <v>0.3100250114924676</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>223</v>
@@ -1287,19 +1287,19 @@
         <v>236111</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>210230</v>
+        <v>206772</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>263309</v>
+        <v>263594</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2645563471199704</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2355573260361408</v>
+        <v>0.2316825887826482</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2950305038323012</v>
+        <v>0.295349876930914</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>128792</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>107934</v>
+        <v>107823</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>149613</v>
+        <v>150763</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2333055818379038</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1955219985371332</v>
+        <v>0.195320391074604</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2710220950303146</v>
+        <v>0.27310645368942</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>59</v>
@@ -1337,19 +1337,19 @@
         <v>60373</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48254</v>
+        <v>47284</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76021</v>
+        <v>75268</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1773332127473999</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1417354416659368</v>
+        <v>0.1388865550538856</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2232951005441523</v>
+        <v>0.2210843706156337</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>178</v>
@@ -1358,19 +1358,19 @@
         <v>189165</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>163848</v>
+        <v>166406</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>215599</v>
+        <v>216670</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2119541211280107</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1835869922951057</v>
+        <v>0.1864536099885165</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2415728571346563</v>
+        <v>0.2427724364349613</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>166858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>146167</v>
+        <v>146712</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>190168</v>
+        <v>191989</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.293964684365343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2575124225954243</v>
+        <v>0.2584713387186139</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3350303034211177</v>
+        <v>0.3382392020417782</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -1483,19 +1483,19 @@
         <v>87296</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71745</v>
+        <v>71651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>104881</v>
+        <v>103162</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2866434725138378</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2355799777619193</v>
+        <v>0.23527006069081</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3443827983407117</v>
+        <v>0.3387380400417581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>246</v>
@@ -1504,19 +1504,19 @@
         <v>254155</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>228850</v>
+        <v>227564</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>283096</v>
+        <v>283543</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.291408213608683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.262394247872015</v>
+        <v>0.2609199451615647</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.324591830967993</v>
+        <v>0.3251038165821941</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>141119</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>121019</v>
+        <v>120066</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>162358</v>
+        <v>162538</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2486179420490569</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2132067879057402</v>
+        <v>0.2115284317375908</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2860372993482561</v>
+        <v>0.2863526841885273</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>76</v>
@@ -1554,19 +1554,19 @@
         <v>81409</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>67164</v>
+        <v>66714</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>96860</v>
+        <v>97462</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2673131134212386</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2205384640354263</v>
+        <v>0.2190611050183463</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3180449769393261</v>
+        <v>0.3200225773432094</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>207</v>
@@ -1575,19 +1575,19 @@
         <v>222528</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>196164</v>
+        <v>199313</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>248855</v>
+        <v>251534</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2551460496729201</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.224916983098974</v>
+        <v>0.2285274778840332</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2853316676168179</v>
+        <v>0.2884038251890563</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>136944</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>116989</v>
+        <v>118025</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>157545</v>
+        <v>157252</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2412629150585942</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2061068845432236</v>
+        <v>0.2079316285834788</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2775568986013829</v>
+        <v>0.2770417095277942</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -1625,19 +1625,19 @@
         <v>82981</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>68022</v>
+        <v>67987</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99305</v>
+        <v>99744</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2724725646170343</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2233562920022386</v>
+        <v>0.2232400926161755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3260731991547677</v>
+        <v>0.3275157177317829</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>213</v>
@@ -1646,19 +1646,19 @@
         <v>219925</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>194267</v>
+        <v>193647</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>245066</v>
+        <v>246288</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2521609136468133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2227427418595824</v>
+        <v>0.2220320105173868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2809870681394769</v>
+        <v>0.2823890535667613</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>122692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>103408</v>
+        <v>102890</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>140991</v>
+        <v>141899</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.216154458527006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.182180200376114</v>
+        <v>0.1812678648459276</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2483926314568595</v>
+        <v>0.2499924269473853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -1696,19 +1696,19 @@
         <v>52860</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40393</v>
+        <v>40223</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66950</v>
+        <v>66839</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1735708494478893</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1326325092600916</v>
+        <v>0.1320744753908377</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2198336790574953</v>
+        <v>0.219469102198933</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>170</v>
@@ -1717,19 +1717,19 @@
         <v>175553</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>153754</v>
+        <v>153213</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>200623</v>
+        <v>200894</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2012848230715836</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1762911664450445</v>
+        <v>0.1756712187896428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2300298706407308</v>
+        <v>0.2303404478417083</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>131496</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>113697</v>
+        <v>111706</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>151857</v>
+        <v>153338</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.300726455719293</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2600220337700166</v>
+        <v>0.2554688327888475</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3472910974853425</v>
+        <v>0.3506794898792769</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1842,19 +1842,19 @@
         <v>47468</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36921</v>
+        <v>35445</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61360</v>
+        <v>59958</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2812069964186234</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2187225069303214</v>
+        <v>0.2099784395489495</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3635060755497412</v>
+        <v>0.3552020568395915</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>167</v>
@@ -1863,19 +1863,19 @@
         <v>178964</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>155614</v>
+        <v>156637</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>202300</v>
+        <v>203860</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2952898550986754</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2567622188350441</v>
+        <v>0.2584501932747119</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3337952051443036</v>
+        <v>0.3363687267579787</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>80004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>64833</v>
+        <v>63410</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>97806</v>
+        <v>97540</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1829659741798558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1482721241386279</v>
+        <v>0.1450164417892475</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2236801955148375</v>
+        <v>0.223071028419621</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -1913,19 +1913,19 @@
         <v>41682</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30290</v>
+        <v>31064</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55132</v>
+        <v>53628</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2469270505122952</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1794393527984293</v>
+        <v>0.1840252974721591</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3266071319881828</v>
+        <v>0.3176970651871776</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>115</v>
@@ -1934,19 +1934,19 @@
         <v>121685</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>102095</v>
+        <v>101151</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>142994</v>
+        <v>141527</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2007805469058728</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1684564950573584</v>
+        <v>0.166899817390426</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2359399180140622</v>
+        <v>0.2335193925265927</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>117302</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>99296</v>
+        <v>99699</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>137148</v>
+        <v>139677</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2682656402958715</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2270857291524361</v>
+        <v>0.228008363355259</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3136534609930904</v>
+        <v>0.3194360109507578</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>48</v>
@@ -1984,19 +1984,19 @@
         <v>49150</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36705</v>
+        <v>38238</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>61189</v>
+        <v>62796</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2911694175907338</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2174454702897569</v>
+        <v>0.2265271658449875</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3624890989530454</v>
+        <v>0.3720143835189129</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>157</v>
@@ -2005,19 +2005,19 @@
         <v>166452</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>145427</v>
+        <v>144796</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>191633</v>
+        <v>189131</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2746448482410149</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2399542486745936</v>
+        <v>0.2389124505809676</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3161938414445922</v>
+        <v>0.3120657334139542</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>108459</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91980</v>
+        <v>89770</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>129819</v>
+        <v>127844</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2480419298049797</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2103544108555978</v>
+        <v>0.2053002464540971</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2968918342738708</v>
+        <v>0.292374686702113</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -2055,19 +2055,19 @@
         <v>30502</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21444</v>
+        <v>21565</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41185</v>
+        <v>42276</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1806965354783475</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1270361772460768</v>
+        <v>0.1277517299407652</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2439864142209466</v>
+        <v>0.2504482225134405</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>129</v>
@@ -2076,19 +2076,19 @@
         <v>138961</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>119845</v>
+        <v>119448</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>160190</v>
+        <v>160836</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2292847497544369</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1977443513806952</v>
+        <v>0.1970894147058702</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2643137543325214</v>
+        <v>0.2653796760230572</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>40334</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>30459</v>
+        <v>30149</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51075</v>
+        <v>51847</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2468874709966899</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.186445553465537</v>
+        <v>0.1845457720915136</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3126391813389867</v>
+        <v>0.3173618440033562</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -2201,19 +2201,19 @@
         <v>19995</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12826</v>
+        <v>12467</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>28071</v>
+        <v>27584</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3110398984881464</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1995210992666988</v>
+        <v>0.1939386458063359</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4366742435586696</v>
+        <v>0.4290896091779354</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>59</v>
@@ -2222,19 +2222,19 @@
         <v>60328</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>48204</v>
+        <v>48584</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>74128</v>
+        <v>74952</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2650027238816299</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2117466935934351</v>
+        <v>0.2134154435988465</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3256204161994248</v>
+        <v>0.3292404002536798</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>41926</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31600</v>
+        <v>31950</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54622</v>
+        <v>53984</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2566328938856428</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1934284922465785</v>
+        <v>0.1955730660431256</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3343488974604025</v>
+        <v>0.3304418879051659</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -2272,19 +2272,19 @@
         <v>17123</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10156</v>
+        <v>10608</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24715</v>
+        <v>24425</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2663603072865762</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1579820491802875</v>
+        <v>0.1650188235996483</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3844633503213323</v>
+        <v>0.3799523410429768</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>60</v>
@@ -2293,19 +2293,19 @@
         <v>59048</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>45250</v>
+        <v>47106</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>71010</v>
+        <v>73328</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2593797042646847</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1987675207358037</v>
+        <v>0.2069229170432583</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3119251355624972</v>
+        <v>0.3221074155052093</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>45740</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35516</v>
+        <v>34133</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57306</v>
+        <v>57083</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2799811902013858</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2173986223452039</v>
+        <v>0.2089318084996015</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3507804869179894</v>
+        <v>0.3494155426069489</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2343,19 +2343,19 @@
         <v>15246</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9206</v>
+        <v>9442</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23610</v>
+        <v>23699</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2371708565010041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1432018770295199</v>
+        <v>0.1468832344264598</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3672748990195171</v>
+        <v>0.3686661147492579</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>62</v>
@@ -2364,19 +2364,19 @@
         <v>60986</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>48722</v>
+        <v>47899</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>74654</v>
+        <v>74495</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2678924813029679</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2140193934533102</v>
+        <v>0.2104059793533389</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3279313861181139</v>
+        <v>0.3272341431998276</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>35369</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26470</v>
+        <v>26357</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>46639</v>
+        <v>46251</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2164984449162815</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1620279507284102</v>
+        <v>0.1613325962669191</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.285485664623558</v>
+        <v>0.283110669637565</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -2414,19 +2414,19 @@
         <v>11920</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6566</v>
+        <v>6842</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>19263</v>
+        <v>19611</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1854289377242732</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1021478850078381</v>
+        <v>0.1064369801858719</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2996580733867638</v>
+        <v>0.305062085850287</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>47</v>
@@ -2435,19 +2435,19 @@
         <v>47289</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>36693</v>
+        <v>35853</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>61977</v>
+        <v>59635</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2077250905507176</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1611820324347065</v>
+        <v>0.1574924690735122</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2722442135862174</v>
+        <v>0.2619583309837271</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>516201</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>476689</v>
+        <v>478400</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>556814</v>
+        <v>554720</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2721368589611628</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2513066197098559</v>
+        <v>0.2522087307947321</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2935476921354822</v>
+        <v>0.2924441785536883</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>304</v>
@@ -2560,19 +2560,19 @@
         <v>313970</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>286929</v>
+        <v>286529</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>344544</v>
+        <v>344857</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3078989360084676</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2813803680608751</v>
+        <v>0.280988560383108</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3378809589658061</v>
+        <v>0.3381885927351254</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>799</v>
@@ -2581,19 +2581,19 @@
         <v>830171</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>780667</v>
+        <v>782258</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>882151</v>
+        <v>878573</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2846403789320866</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2676667901903064</v>
+        <v>0.2682123005046379</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3024627727262275</v>
+        <v>0.301235897784019</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>437149</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>398765</v>
+        <v>401091</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>475190</v>
+        <v>475283</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2304614871592314</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2102256023636193</v>
+        <v>0.2114521961355652</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2505164095612292</v>
+        <v>0.2505652197477518</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>233</v>
@@ -2631,19 +2631,19 @@
         <v>245945</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>219925</v>
+        <v>221275</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>276359</v>
+        <v>275806</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2411885438494533</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2156724490962074</v>
+        <v>0.2169963274329078</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2710153170926271</v>
+        <v>0.2704728061930651</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>650</v>
@@ -2652,19 +2652,19 @@
         <v>683094</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>637336</v>
+        <v>640304</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>734867</v>
+        <v>733559</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2342119954806022</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2185229819959207</v>
+        <v>0.2195406748424097</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2519635262702499</v>
+        <v>0.2515151705956851</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>501184</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>462759</v>
+        <v>463380</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>538769</v>
+        <v>540136</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2642203542268952</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2439631215615548</v>
+        <v>0.2442902082599444</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2840348861045462</v>
+        <v>0.2847554610048452</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>257</v>
@@ -2702,19 +2702,19 @@
         <v>271928</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>243677</v>
+        <v>243556</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>301688</v>
+        <v>301285</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2666691796683144</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2389645930258059</v>
+        <v>0.2388458782345273</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.295853767190414</v>
+        <v>0.2954591979823801</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>741</v>
@@ -2723,19 +2723,19 @@
         <v>773112</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>726054</v>
+        <v>725603</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>818050</v>
+        <v>819411</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2650765387760082</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2489416891428295</v>
+        <v>0.2487871023485654</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2804843473142025</v>
+        <v>0.2809512562239426</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>442308</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>404597</v>
+        <v>401639</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>481004</v>
+        <v>477679</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2331812996527106</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.213300293525769</v>
+        <v>0.2117410543333744</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2535812423782968</v>
+        <v>0.2518285732743901</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>181</v>
@@ -2773,19 +2773,19 @@
         <v>187876</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>164165</v>
+        <v>164665</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>215478</v>
+        <v>214260</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1842433404737647</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1609902397730698</v>
+        <v>0.161481026258557</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2113110170020887</v>
+        <v>0.2101167918812747</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>601</v>
@@ -2794,19 +2794,19 @@
         <v>630185</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>587416</v>
+        <v>587741</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>679042</v>
+        <v>676284</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.216071086811303</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2014070289460358</v>
+        <v>0.2015185638076189</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2328227155414689</v>
+        <v>0.2318772875245868</v>
       </c>
     </row>
     <row r="33">
@@ -3139,19 +3139,19 @@
         <v>17793</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10885</v>
+        <v>11149</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26716</v>
+        <v>28034</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2173101459572959</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1329347727874347</v>
+        <v>0.1361607832718901</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3262881701908171</v>
+        <v>0.3423821249810324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -3160,19 +3160,19 @@
         <v>26060</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18232</v>
+        <v>18632</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35408</v>
+        <v>33845</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2968059796195036</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.207655236932359</v>
+        <v>0.2122084272795958</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4032724673036039</v>
+        <v>0.385479631129263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -3181,19 +3181,19 @@
         <v>43853</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33329</v>
+        <v>32459</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55913</v>
+        <v>55952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2584449591944029</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1964238858521329</v>
+        <v>0.191295077908514</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.329519337725835</v>
+        <v>0.3297472968095213</v>
       </c>
     </row>
     <row r="5">
@@ -3210,19 +3210,19 @@
         <v>23191</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15218</v>
+        <v>15231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33384</v>
+        <v>32753</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2832255074901831</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1858561770459155</v>
+        <v>0.1860152870322933</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4077127834410734</v>
+        <v>0.4000084176247748</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -3231,19 +3231,19 @@
         <v>22304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15204</v>
+        <v>15254</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31616</v>
+        <v>31201</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.254030823640559</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1731663512661518</v>
+        <v>0.1737290291666009</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3600834804267692</v>
+        <v>0.3553553204946157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -3252,19 +3252,19 @@
         <v>45495</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33447</v>
+        <v>34243</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58043</v>
+        <v>60155</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2681188306701929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.197118285081766</v>
+        <v>0.2018108783036818</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3420732039127805</v>
+        <v>0.3545177338954512</v>
       </c>
     </row>
     <row r="6">
@@ -3281,19 +3281,19 @@
         <v>25652</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16728</v>
+        <v>17136</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34261</v>
+        <v>34357</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3132892941802579</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2042929391764941</v>
+        <v>0.2092860877067108</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4184294455105866</v>
+        <v>0.4196065146481456</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -3302,19 +3302,19 @@
         <v>19961</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12788</v>
+        <v>12907</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28630</v>
+        <v>28054</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.227347598923476</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1456464816497087</v>
+        <v>0.1469990196343432</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3260761841608551</v>
+        <v>0.3195211453434436</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -3323,19 +3323,19 @@
         <v>45613</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35411</v>
+        <v>33773</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59743</v>
+        <v>56993</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2688190946640194</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2086936328485267</v>
+        <v>0.1990391684288825</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3520908828568251</v>
+        <v>0.3358839496168533</v>
       </c>
     </row>
     <row r="7">
@@ -3352,19 +3352,19 @@
         <v>15244</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8992</v>
+        <v>9073</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23511</v>
+        <v>23702</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1861750523722631</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1098230822992404</v>
+        <v>0.1108099727008173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.287136419325268</v>
+        <v>0.2894741072509353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -3373,19 +3373,19 @@
         <v>19476</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12595</v>
+        <v>12612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28606</v>
+        <v>28342</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2218155978164614</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1434489573426304</v>
+        <v>0.1436481660181982</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3258069746683531</v>
+        <v>0.322797831337406</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -3394,19 +3394,19 @@
         <v>34720</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25336</v>
+        <v>24999</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46909</v>
+        <v>45998</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2046171154713849</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1493178249700942</v>
+        <v>0.1473272730172408</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2764530951770257</v>
+        <v>0.2710878816998594</v>
       </c>
     </row>
     <row r="8">
@@ -3498,19 +3498,19 @@
         <v>97010</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>80242</v>
+        <v>79739</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>114516</v>
+        <v>115329</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2541127288158089</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2101883622986971</v>
+        <v>0.2088715180719053</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.299968771743958</v>
+        <v>0.3020988794556727</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -3519,19 +3519,19 @@
         <v>88234</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>72409</v>
+        <v>71516</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>104125</v>
+        <v>103693</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3183138751833381</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2612215169576841</v>
+        <v>0.2580003392996092</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3756423561694381</v>
+        <v>0.3740833617443727</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>169</v>
@@ -3540,19 +3540,19 @@
         <v>185244</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>162638</v>
+        <v>161021</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>209727</v>
+        <v>211773</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2811193317804448</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2468127798215164</v>
+        <v>0.2443587724655057</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3182732453553569</v>
+        <v>0.3213784389466776</v>
       </c>
     </row>
     <row r="10">
@@ -3569,19 +3569,19 @@
         <v>111324</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92718</v>
+        <v>94478</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128951</v>
+        <v>130021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2916073535507751</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2428711594526701</v>
+        <v>0.2474808522382162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3377809931660918</v>
+        <v>0.3405840524065817</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -3590,19 +3590,19 @@
         <v>62308</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48639</v>
+        <v>48732</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77046</v>
+        <v>78464</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2247817031524577</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1754710698751112</v>
+        <v>0.1758065574966101</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2779500064674766</v>
+        <v>0.2830679922382197</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -3611,19 +3611,19 @@
         <v>173632</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149893</v>
+        <v>151938</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196748</v>
+        <v>197815</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2634967369921634</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2274724331128838</v>
+        <v>0.2305748648439525</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2985765153905904</v>
+        <v>0.3001967755828862</v>
       </c>
     </row>
     <row r="11">
@@ -3640,19 +3640,19 @@
         <v>89793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>72854</v>
+        <v>74094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>106622</v>
+        <v>108206</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2352069837092241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1908372350976577</v>
+        <v>0.1940847085904967</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2792916721937322</v>
+        <v>0.2834405903722778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>66</v>
@@ -3661,19 +3661,19 @@
         <v>72570</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58400</v>
+        <v>59188</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90028</v>
+        <v>89712</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2618042596349749</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2106857169822085</v>
+        <v>0.2135277347021864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3247869490190637</v>
+        <v>0.323645427002189</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>156</v>
@@ -3682,19 +3682,19 @@
         <v>162363</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>140350</v>
+        <v>139902</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>185701</v>
+        <v>183743</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2463952897054378</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2129892579107171</v>
+        <v>0.2123100369510063</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2818124803324804</v>
+        <v>0.2788413324086996</v>
       </c>
     </row>
     <row r="12">
@@ -3711,19 +3711,19 @@
         <v>83633</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65846</v>
+        <v>67431</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99836</v>
+        <v>100976</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2190729339241919</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1724797094066474</v>
+        <v>0.1766310987380607</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2615160530348764</v>
+        <v>0.2645015940660577</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -3732,19 +3732,19 @@
         <v>54080</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>41860</v>
+        <v>40692</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>67599</v>
+        <v>67375</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1951001620292294</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1510148011625339</v>
+        <v>0.1468016975426046</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2438724749953549</v>
+        <v>0.2430619616473802</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>130</v>
@@ -3753,19 +3753,19 @@
         <v>137713</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>117590</v>
+        <v>116951</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>160036</v>
+        <v>161483</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2089886415219541</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1784498115172287</v>
+        <v>0.1774800010746981</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2428644634707154</v>
+        <v>0.2450609507776977</v>
       </c>
     </row>
     <row r="13">
@@ -3857,19 +3857,19 @@
         <v>105917</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88061</v>
+        <v>88931</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>125712</v>
+        <v>125357</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2496018905199486</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2075225961650271</v>
+        <v>0.2095735363087788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.296250937399701</v>
+        <v>0.2954153822623996</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -3878,19 +3878,19 @@
         <v>64464</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51115</v>
+        <v>51108</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79624</v>
+        <v>81232</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2263130487750297</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1794493843820782</v>
+        <v>0.1794223500783958</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2795332656906249</v>
+        <v>0.2851779560984237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>155</v>
@@ -3899,19 +3899,19 @@
         <v>170381</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>146811</v>
+        <v>147377</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>196591</v>
+        <v>197324</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2402479261018846</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2070124638301382</v>
+        <v>0.2078100739608582</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2772051294499234</v>
+        <v>0.2782389879282015</v>
       </c>
     </row>
     <row r="15">
@@ -3928,19 +3928,19 @@
         <v>105135</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>87267</v>
+        <v>88175</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>124650</v>
+        <v>123650</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2477603212135393</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2056527659212827</v>
+        <v>0.2077914694366056</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2937470485755646</v>
+        <v>0.2913910096201137</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>83</v>
@@ -3949,19 +3949,19 @@
         <v>84836</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>68540</v>
+        <v>71092</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>100751</v>
+        <v>102632</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.297832548183003</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2406198395794731</v>
+        <v>0.2495821564487674</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3537042683230643</v>
+        <v>0.3603067509965713</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>184</v>
@@ -3970,19 +3970,19 @@
         <v>189972</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>164960</v>
+        <v>166471</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>214444</v>
+        <v>213107</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2678718336080008</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2326033697013795</v>
+        <v>0.2347350178588319</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3023784968747734</v>
+        <v>0.3004939547750103</v>
       </c>
     </row>
     <row r="16">
@@ -3999,19 +3999,19 @@
         <v>124847</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104061</v>
+        <v>106621</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>144069</v>
+        <v>144143</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2942117048631114</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2452278072069531</v>
+        <v>0.2512622646103604</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3395101907679727</v>
+        <v>0.3396856276928676</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -4020,19 +4020,19 @@
         <v>68561</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55725</v>
+        <v>55299</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>84354</v>
+        <v>83311</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2406945737404157</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1956316087786381</v>
+        <v>0.1941352687851281</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2961372560503492</v>
+        <v>0.2924789710779404</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>190</v>
@@ -4041,19 +4041,19 @@
         <v>193408</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>171132</v>
+        <v>171988</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>217858</v>
+        <v>220781</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2727165465481737</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.241307285520479</v>
+        <v>0.2425131807630304</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3071928300100354</v>
+        <v>0.3113151558830612</v>
       </c>
     </row>
     <row r="17">
@@ -4070,19 +4070,19 @@
         <v>88444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71799</v>
+        <v>72916</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>107354</v>
+        <v>106858</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2084260834034007</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1691997159065693</v>
+        <v>0.1718338593798128</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2529894663741586</v>
+        <v>0.2518188070488722</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>65</v>
@@ -4091,19 +4091,19 @@
         <v>66984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53171</v>
+        <v>54100</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81963</v>
+        <v>81272</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2351598293015516</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1866656842794124</v>
+        <v>0.1899255912801124</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2877457439831981</v>
+        <v>0.2853195995479522</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>152</v>
@@ -4112,19 +4112,19 @@
         <v>155428</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>133703</v>
+        <v>133481</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>178349</v>
+        <v>178397</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2191636937419409</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1885288376343087</v>
+        <v>0.1882169351091385</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2514833064673649</v>
+        <v>0.2515508645053447</v>
       </c>
     </row>
     <row r="18">
@@ -4216,19 +4216,19 @@
         <v>79457</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63504</v>
+        <v>64425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96521</v>
+        <v>96742</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2161133091258544</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1727226975466093</v>
+        <v>0.1752291629426587</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2625247505762218</v>
+        <v>0.2631263690968555</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -4237,19 +4237,19 @@
         <v>58191</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44712</v>
+        <v>45021</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73779</v>
+        <v>73720</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2582348229517347</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1984203279245035</v>
+        <v>0.1997935215828461</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3274133079526123</v>
+        <v>0.3271503563791053</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>123</v>
@@ -4258,19 +4258,19 @@
         <v>137648</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115507</v>
+        <v>116990</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>159425</v>
+        <v>161658</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2321194167421839</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1947824749593466</v>
+        <v>0.1972836016153313</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2688441943515072</v>
+        <v>0.2726094263622776</v>
       </c>
     </row>
     <row r="20">
@@ -4287,19 +4287,19 @@
         <v>65361</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50650</v>
+        <v>50924</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>82234</v>
+        <v>82739</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.177774194704598</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1377628587156516</v>
+        <v>0.1385080989899612</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2236660056163631</v>
+        <v>0.2250410357336114</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -4308,19 +4308,19 @@
         <v>66651</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>53759</v>
+        <v>51972</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>80704</v>
+        <v>81629</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2957809380901406</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2385704737870573</v>
+        <v>0.2306371146937</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3581411207744974</v>
+        <v>0.3622463075326938</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -4329,19 +4329,19 @@
         <v>132012</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>111883</v>
+        <v>112390</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>155164</v>
+        <v>152889</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2226165676992988</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1886718279220386</v>
+        <v>0.1895276622719623</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2616581591969764</v>
+        <v>0.2578210214802981</v>
       </c>
     </row>
     <row r="21">
@@ -4358,19 +4358,19 @@
         <v>134491</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>114050</v>
+        <v>114942</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>155483</v>
+        <v>156498</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3658002673270094</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3102019672832378</v>
+        <v>0.3126288605925049</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4228954655341877</v>
+        <v>0.4256557420624495</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -4379,19 +4379,19 @@
         <v>51947</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>38275</v>
+        <v>38990</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>67214</v>
+        <v>66653</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2305262536071216</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1698545513791234</v>
+        <v>0.173027314941045</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2982796859213319</v>
+        <v>0.2957906110633733</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>159</v>
@@ -4400,19 +4400,19 @@
         <v>186438</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>161451</v>
+        <v>160910</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>210357</v>
+        <v>209401</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3143963593325392</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2722602108369202</v>
+        <v>0.271347780779586</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3547314224398458</v>
+        <v>0.3531198464142004</v>
       </c>
     </row>
     <row r="22">
@@ -4429,19 +4429,19 @@
         <v>88354</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70278</v>
+        <v>72063</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108308</v>
+        <v>107697</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2403122288425382</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1911483690505806</v>
+        <v>0.1960025869454213</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2945856832763988</v>
+        <v>0.292922716469883</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -4450,19 +4450,19 @@
         <v>48551</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36658</v>
+        <v>35991</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63725</v>
+        <v>61734</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2154579853510031</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1626795896208099</v>
+        <v>0.1597180483675714</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2827930600243252</v>
+        <v>0.2739581579675586</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>119</v>
@@ -4471,19 +4471,19 @@
         <v>136905</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>114141</v>
+        <v>113403</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157354</v>
+        <v>159637</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2308676562259781</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1924801041858868</v>
+        <v>0.1912358466923685</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2653513885093799</v>
+        <v>0.2692004162157834</v>
       </c>
     </row>
     <row r="23">
@@ -4575,19 +4575,19 @@
         <v>26755</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18201</v>
+        <v>18595</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38066</v>
+        <v>37886</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1723441652178297</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1172404421139451</v>
+        <v>0.1197825391586816</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2452040910956464</v>
+        <v>0.2440476872301767</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -4596,19 +4596,19 @@
         <v>13561</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8207</v>
+        <v>8060</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21229</v>
+        <v>21060</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1945944292999408</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1177557599570643</v>
+        <v>0.1156509671396325</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3046101726079596</v>
+        <v>0.3021964100339427</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>38</v>
@@ -4617,19 +4617,19 @@
         <v>40316</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>29212</v>
+        <v>30189</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>53080</v>
+        <v>52931</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1792379682458518</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1298687516968717</v>
+        <v>0.1342155107615161</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2359818351954678</v>
+        <v>0.2353206875680013</v>
       </c>
     </row>
     <row r="25">
@@ -4646,19 +4646,19 @@
         <v>44280</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32688</v>
+        <v>34063</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56223</v>
+        <v>56624</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2852307910681883</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.210562130572383</v>
+        <v>0.2194199883179793</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3621656930339728</v>
+        <v>0.3647494515301988</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -4667,19 +4667,19 @@
         <v>16179</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9239</v>
+        <v>9052</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24401</v>
+        <v>25231</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.232157385873109</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1325708932174972</v>
+        <v>0.1298916569019121</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3501368052781154</v>
+        <v>0.3620365362415228</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -4688,19 +4688,19 @@
         <v>60459</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46753</v>
+        <v>47338</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75728</v>
+        <v>76194</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2687870490932134</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2078557351758026</v>
+        <v>0.2104535121515769</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3366728546698873</v>
+        <v>0.3387429602330525</v>
       </c>
     </row>
     <row r="26">
@@ -4717,19 +4717,19 @@
         <v>46695</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>36082</v>
+        <v>35750</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>58903</v>
+        <v>59234</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3007926602037703</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2324228818469972</v>
+        <v>0.2302882383089447</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3794297744986077</v>
+        <v>0.3815590632152732</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -4738,19 +4738,19 @@
         <v>19713</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12835</v>
+        <v>12229</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28435</v>
+        <v>28252</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2828618198437819</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1841745923388218</v>
+        <v>0.1754704916125768</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4080086806526987</v>
+        <v>0.4053846228331992</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>63</v>
@@ -4759,19 +4759,19 @@
         <v>66408</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>53474</v>
+        <v>54068</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>79705</v>
+        <v>81735</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2952371449472996</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2377356376078652</v>
+        <v>0.2403751401302968</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3543510333663357</v>
+        <v>0.3633775961575772</v>
       </c>
     </row>
     <row r="27">
@@ -4788,19 +4788,19 @@
         <v>37511</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>27768</v>
+        <v>27957</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>49764</v>
+        <v>49142</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2416323835102118</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1788726889288972</v>
+        <v>0.1800886923632607</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.320561865733877</v>
+        <v>0.3165501256193865</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>19</v>
@@ -4809,19 +4809,19 @@
         <v>20237</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13166</v>
+        <v>13011</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>28909</v>
+        <v>28370</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2903863649831683</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1889223544066945</v>
+        <v>0.1866929163492622</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4148200747644125</v>
+        <v>0.4070865202331151</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>55</v>
@@ -4830,19 +4830,19 @@
         <v>57749</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>44837</v>
+        <v>45067</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>70878</v>
+        <v>72588</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2567378377136351</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1993361783940931</v>
+        <v>0.2003568627214491</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.315107371001993</v>
+        <v>0.3227115574802083</v>
       </c>
     </row>
     <row r="28">
@@ -4934,19 +4934,19 @@
         <v>326932</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>296285</v>
+        <v>296541</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>364448</v>
+        <v>364552</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2317208895050538</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2099988186108231</v>
+        <v>0.210180197913573</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2583115983535314</v>
+        <v>0.2583850913530131</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>227</v>
@@ -4955,19 +4955,19 @@
         <v>250510</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>223128</v>
+        <v>225525</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>279447</v>
+        <v>276683</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.265126883581478</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2361471390547893</v>
+        <v>0.2386839755160745</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2957521994635436</v>
+        <v>0.2928264419652036</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>527</v>
@@ -4976,19 +4976,19 @@
         <v>577442</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>533181</v>
+        <v>535389</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>624374</v>
+        <v>620178</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2451196871386804</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2263310771550078</v>
+        <v>0.22726814181679</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2650417924206861</v>
+        <v>0.2632604782501257</v>
       </c>
     </row>
     <row r="30">
@@ -5005,19 +5005,19 @@
         <v>349290</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>316838</v>
+        <v>315583</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>383049</v>
+        <v>382725</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2475679355296434</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2245667976802254</v>
+        <v>0.2236772835949832</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2714952964118934</v>
+        <v>0.2712652678347551</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>236</v>
@@ -5026,19 +5026,19 @@
         <v>252279</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>227381</v>
+        <v>226387</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>282470</v>
+        <v>280416</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2669984600172905</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2406484164656107</v>
+        <v>0.2395958927532191</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2989509884786509</v>
+        <v>0.2967770782242223</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>567</v>
@@ -5047,19 +5047,19 @@
         <v>601569</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>558153</v>
+        <v>559324</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>645424</v>
+        <v>642404</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2553613173080633</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2369313046773533</v>
+        <v>0.2374287486166478</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2739773067954584</v>
+        <v>0.2726953896990246</v>
       </c>
     </row>
     <row r="31">
@@ -5076,19 +5076,19 @@
         <v>421478</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>387060</v>
+        <v>386436</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>457708</v>
+        <v>454484</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2987326584701913</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2743383264532896</v>
+        <v>0.2738955543941956</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3244118493623331</v>
+        <v>0.3221264233544787</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>212</v>
@@ -5097,19 +5097,19 @@
         <v>232752</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>203667</v>
+        <v>204045</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>260244</v>
+        <v>258387</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2463322715334601</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2155502782199509</v>
+        <v>0.215950143116786</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2754282178058967</v>
+        <v>0.2734627999700138</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>612</v>
@@ -5118,19 +5118,19 @@
         <v>654230</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>613030</v>
+        <v>609496</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>704600</v>
+        <v>696123</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.277715406928963</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2602262344054299</v>
+        <v>0.258726055739776</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2990972409795797</v>
+        <v>0.2954986793060062</v>
       </c>
     </row>
     <row r="32">
@@ -5147,19 +5147,19 @@
         <v>313187</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>281176</v>
+        <v>281367</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>345084</v>
+        <v>346638</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2219785164951115</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1992903341390278</v>
+        <v>0.1994259141165823</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2445862185566406</v>
+        <v>0.2456882611379761</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>197</v>
@@ -5168,19 +5168,19 @@
         <v>209329</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>182680</v>
+        <v>183531</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>234634</v>
+        <v>234936</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2215423848677714</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.193338514829299</v>
+        <v>0.1942391059306514</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2483242825641559</v>
+        <v>0.2486438857526442</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>490</v>
@@ -5189,19 +5189,19 @@
         <v>522515</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>477947</v>
+        <v>479997</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>558653</v>
+        <v>566410</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2218035886242933</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2028848559041816</v>
+        <v>0.2037547221822619</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.237143661276273</v>
+        <v>0.2404366384784795</v>
       </c>
     </row>
     <row r="33">
@@ -5534,19 +5534,19 @@
         <v>21708</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14392</v>
+        <v>14832</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30837</v>
+        <v>30130</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2744064483583762</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1819201725183172</v>
+        <v>0.1874943480566241</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3898082162130285</v>
+        <v>0.380866617381677</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -5555,19 +5555,19 @@
         <v>30274</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21995</v>
+        <v>22979</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39674</v>
+        <v>40382</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3295860131859877</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.239454067831285</v>
+        <v>0.2501700784057367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4319173322845043</v>
+        <v>0.4396225838744473</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -5576,19 +5576,19 @@
         <v>51982</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40257</v>
+        <v>40070</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64989</v>
+        <v>63859</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3040530906334974</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.235469480359141</v>
+        <v>0.2343749007495021</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3801302838401542</v>
+        <v>0.3735224899105571</v>
       </c>
     </row>
     <row r="5">
@@ -5605,19 +5605,19 @@
         <v>16030</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9287</v>
+        <v>9257</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24190</v>
+        <v>24607</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2026270405305263</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1174001777420371</v>
+        <v>0.1170162354651374</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.305785716715561</v>
+        <v>0.3110550212737689</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -5626,19 +5626,19 @@
         <v>18734</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12090</v>
+        <v>12306</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27703</v>
+        <v>27320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.20394805386933</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1316258290268215</v>
+        <v>0.1339710956396337</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3015966261468536</v>
+        <v>0.2974243130483321</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -5647,19 +5647,19 @@
         <v>34763</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24169</v>
+        <v>24276</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46254</v>
+        <v>45884</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2033367889676249</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.141371381090356</v>
+        <v>0.1419974152732074</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2705498653574557</v>
+        <v>0.2683857596491409</v>
       </c>
     </row>
     <row r="6">
@@ -5676,19 +5676,19 @@
         <v>26392</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17934</v>
+        <v>18257</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34772</v>
+        <v>35132</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3336134483106131</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2267040439092255</v>
+        <v>0.2307868244776425</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4395483415956403</v>
+        <v>0.4440979041860574</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -5697,19 +5697,19 @@
         <v>24496</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16998</v>
+        <v>16864</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33490</v>
+        <v>33024</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2666846384637784</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1850578277975</v>
+        <v>0.1835978481252754</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3645948569035708</v>
+        <v>0.3595235768907606</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -5718,19 +5718,19 @@
         <v>50888</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39123</v>
+        <v>38750</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62725</v>
+        <v>62546</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2976542215637608</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2288367787330771</v>
+        <v>0.2266583706083058</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3668928884471389</v>
+        <v>0.3658435095829621</v>
       </c>
     </row>
     <row r="7">
@@ -5747,19 +5747,19 @@
         <v>14980</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8447</v>
+        <v>8435</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22947</v>
+        <v>22778</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1893530628004844</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1067739251341526</v>
+        <v>0.1066224898704303</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2900655705878565</v>
+        <v>0.2879262449775277</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -5768,19 +5768,19 @@
         <v>18351</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11620</v>
+        <v>11772</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26348</v>
+        <v>27307</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1997812944809038</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1264992797167367</v>
+        <v>0.1281615417445623</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2868380700653687</v>
+        <v>0.2972886447835507</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -5789,19 +5789,19 @@
         <v>33330</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23231</v>
+        <v>23611</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45564</v>
+        <v>43560</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1949558988351169</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1358838137966482</v>
+        <v>0.1381036702338606</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2665131758286136</v>
+        <v>0.2547933201335571</v>
       </c>
     </row>
     <row r="8">
@@ -5893,19 +5893,19 @@
         <v>80919</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>65397</v>
+        <v>65870</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>99269</v>
+        <v>98871</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2357601298626229</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1905349501431446</v>
+        <v>0.1919128786290277</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2892218824630891</v>
+        <v>0.2880624448900704</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>91</v>
@@ -5914,19 +5914,19 @@
         <v>89251</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74245</v>
+        <v>74842</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>105126</v>
+        <v>104130</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3260705165728039</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2712487496751723</v>
+        <v>0.2734285898824286</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3840685917716894</v>
+        <v>0.380432062523266</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>170</v>
@@ -5935,19 +5935,19 @@
         <v>170170</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>151189</v>
+        <v>149052</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>193977</v>
+        <v>192830</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.275827618924943</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2450611383660362</v>
+        <v>0.2415964531033304</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.314415347693922</v>
+        <v>0.3125564910299961</v>
       </c>
     </row>
     <row r="10">
@@ -5964,19 +5964,19 @@
         <v>85137</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69610</v>
+        <v>68537</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102348</v>
+        <v>102379</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2480471814842381</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2028108647401663</v>
+        <v>0.1996823817190048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2981936693516654</v>
+        <v>0.2982816456845518</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -5985,19 +5985,19 @@
         <v>74089</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60257</v>
+        <v>58935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87971</v>
+        <v>88604</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2706790274788522</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2201452262857787</v>
+        <v>0.2153158245130897</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3213963430310061</v>
+        <v>0.3237078339029312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>161</v>
@@ -6006,19 +6006,19 @@
         <v>159226</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138691</v>
+        <v>140328</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180952</v>
+        <v>180672</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.258088122231833</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2248029114753005</v>
+        <v>0.227456715103511</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.293303776685873</v>
+        <v>0.2928502303939376</v>
       </c>
     </row>
     <row r="11">
@@ -6035,19 +6035,19 @@
         <v>96601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80172</v>
+        <v>79912</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113689</v>
+        <v>112925</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2814490452859673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.233582124479918</v>
+        <v>0.2328237551893093</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3312343000338311</v>
+        <v>0.3290097216520979</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -6056,19 +6056,19 @@
         <v>65834</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53903</v>
+        <v>53001</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>79905</v>
+        <v>79752</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2405176104178736</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1969298172307621</v>
+        <v>0.1936359031677645</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2919273643735978</v>
+        <v>0.2913666662113231</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>161</v>
@@ -6077,19 +6077,19 @@
         <v>162435</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>139267</v>
+        <v>141715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>183685</v>
+        <v>182391</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.263289231352876</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2257365359428443</v>
+        <v>0.2297043338665102</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2977332056173426</v>
+        <v>0.2956355661433999</v>
       </c>
     </row>
     <row r="12">
@@ -6106,19 +6106,19 @@
         <v>80571</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65709</v>
+        <v>65296</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>98246</v>
+        <v>97162</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2347436433671717</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1914453025335103</v>
+        <v>0.1902399166963399</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2862406056580274</v>
+        <v>0.2830820984495059</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -6127,19 +6127,19 @@
         <v>44543</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33484</v>
+        <v>33132</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57744</v>
+        <v>57419</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1627328455304703</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1223301717520862</v>
+        <v>0.1210443457665449</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.210962466843214</v>
+        <v>0.2097766519982584</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>119</v>
@@ -6148,19 +6148,19 @@
         <v>125113</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>105632</v>
+        <v>104420</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>145276</v>
+        <v>144552</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.202795027490348</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1712170651786352</v>
+        <v>0.1692528996542484</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2354769452708382</v>
+        <v>0.2343027408166988</v>
       </c>
     </row>
     <row r="13">
@@ -6252,19 +6252,19 @@
         <v>142790</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>122958</v>
+        <v>122452</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>163212</v>
+        <v>162606</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3117704072629624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2684684483862264</v>
+        <v>0.2673645932476968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3563592416253429</v>
+        <v>0.35503552286949</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>109</v>
@@ -6273,19 +6273,19 @@
         <v>107862</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>92104</v>
+        <v>92303</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>124189</v>
+        <v>125673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3419541632066075</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2919980983927296</v>
+        <v>0.2926296105083306</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3937158097482755</v>
+        <v>0.3984205843992324</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>247</v>
@@ -6294,19 +6294,19 @@
         <v>250652</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>225351</v>
+        <v>225543</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>276669</v>
+        <v>276819</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3240802873535231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2913674829301728</v>
+        <v>0.2916163434269086</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3577190196210657</v>
+        <v>0.3579129327541737</v>
       </c>
     </row>
     <row r="15">
@@ -6323,19 +6323,19 @@
         <v>118891</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>100583</v>
+        <v>101180</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>137629</v>
+        <v>138652</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2595876659452447</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2196134676817941</v>
+        <v>0.2209189320333299</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3005020371704694</v>
+        <v>0.3027340574757147</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>70</v>
@@ -6344,19 +6344,19 @@
         <v>70056</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>55886</v>
+        <v>58114</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>85307</v>
+        <v>88193</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2220989306584576</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1771743274594208</v>
+        <v>0.184238753396037</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2704478817734687</v>
+        <v>0.2796001944038474</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>183</v>
@@ -6365,19 +6365,19 @@
         <v>188947</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>166375</v>
+        <v>166028</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>214373</v>
+        <v>212102</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2442985867137291</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.215114336939896</v>
+        <v>0.2146653673161611</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2771740194189108</v>
+        <v>0.2742368104933172</v>
       </c>
     </row>
     <row r="16">
@@ -6394,19 +6394,19 @@
         <v>115457</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97753</v>
+        <v>99198</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136650</v>
+        <v>136421</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2520905140423481</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2134356058902744</v>
+        <v>0.2165912243385274</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2983643678516386</v>
+        <v>0.29786330793757</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -6415,19 +6415,19 @@
         <v>74108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>60405</v>
+        <v>60752</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88903</v>
+        <v>89658</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2349462114978539</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1915023137882528</v>
+        <v>0.1926015500986335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2818500480021116</v>
+        <v>0.2842434272291244</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>185</v>
@@ -6436,19 +6436,19 @@
         <v>189565</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164790</v>
+        <v>165351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>214782</v>
+        <v>213832</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.24509853103821</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2130650141964598</v>
+        <v>0.2137911268445596</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2777026948705753</v>
+        <v>0.2764746681535802</v>
       </c>
     </row>
     <row r="17">
@@ -6465,19 +6465,19 @@
         <v>80860</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64692</v>
+        <v>64781</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>97754</v>
+        <v>98202</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1765514127494448</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1412488669441735</v>
+        <v>0.1414445194888321</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2134375119105179</v>
+        <v>0.2144154060991667</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -6486,19 +6486,19 @@
         <v>63401</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50607</v>
+        <v>49475</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78496</v>
+        <v>78116</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.201000694637081</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1604390771479659</v>
+        <v>0.1568515445636998</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2488565047692432</v>
+        <v>0.2476525760789444</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>138</v>
@@ -6507,19 +6507,19 @@
         <v>144261</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>124048</v>
+        <v>122681</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171013</v>
+        <v>167732</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1865225948945378</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1603880673061988</v>
+        <v>0.1586199426786451</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2211111576055478</v>
+        <v>0.2168691142637467</v>
       </c>
     </row>
     <row r="18">
@@ -6611,19 +6611,19 @@
         <v>111922</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94801</v>
+        <v>93182</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>130921</v>
+        <v>132143</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3086381670729457</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2614254750641551</v>
+        <v>0.2569615466711391</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3610301947502911</v>
+        <v>0.3644016298210445</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -6632,19 +6632,19 @@
         <v>73622</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60427</v>
+        <v>60075</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>89704</v>
+        <v>88427</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3040704168805159</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2495743534757727</v>
+        <v>0.2481203900675109</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3704930052781502</v>
+        <v>0.3652173080566948</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>166</v>
@@ -6653,19 +6653,19 @@
         <v>185544</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>161527</v>
+        <v>162543</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>208837</v>
+        <v>210964</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3068094023407574</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2670960192112106</v>
+        <v>0.2687755763206039</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3453264686449035</v>
+        <v>0.3488444918416602</v>
       </c>
     </row>
     <row r="20">
@@ -6682,19 +6682,19 @@
         <v>89735</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>74339</v>
+        <v>73672</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108573</v>
+        <v>109043</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2474543663301559</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2049983536026723</v>
+        <v>0.2031586452611137</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2994037810936718</v>
+        <v>0.3007009446398662</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -6703,19 +6703,19 @@
         <v>67367</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>53416</v>
+        <v>54438</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>84087</v>
+        <v>83231</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2782355014958979</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2206153691725874</v>
+        <v>0.2248392438946105</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3472914070427132</v>
+        <v>0.3437563885105932</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>143</v>
@@ -6724,19 +6724,19 @@
         <v>157101</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>137591</v>
+        <v>134299</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>179879</v>
+        <v>179519</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2597780381677982</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2275162581565275</v>
+        <v>0.2220735265453885</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2974432431673928</v>
+        <v>0.2968467166999994</v>
       </c>
     </row>
     <row r="21">
@@ -6753,19 +6753,19 @@
         <v>97771</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>82255</v>
+        <v>81569</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>116452</v>
+        <v>116273</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2696163849539066</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2268281534505119</v>
+        <v>0.2249374431281226</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3211309874949788</v>
+        <v>0.3206358924094761</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -6774,19 +6774,19 @@
         <v>44651</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32591</v>
+        <v>31734</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>58016</v>
+        <v>57952</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1844168057288172</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1346056602063362</v>
+        <v>0.1310654558265615</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2396165983660294</v>
+        <v>0.2393523364194506</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>132</v>
@@ -6795,19 +6795,19 @@
         <v>142422</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>121609</v>
+        <v>119530</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>165024</v>
+        <v>163928</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2355055034213833</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2010890152527663</v>
+        <v>0.1976508384727344</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2728783579840264</v>
+        <v>0.2710670987526123</v>
       </c>
     </row>
     <row r="22">
@@ -6824,19 +6824,19 @@
         <v>63203</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>48931</v>
+        <v>49645</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78388</v>
+        <v>79181</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1742910816429918</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1349334545271238</v>
+        <v>0.1369035094306077</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2161643229353656</v>
+        <v>0.2183509386293013</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -6845,19 +6845,19 @@
         <v>56481</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43451</v>
+        <v>43297</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70359</v>
+        <v>70931</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2332772758947689</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1794604995551281</v>
+        <v>0.1788220207667085</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2905962846931884</v>
+        <v>0.2929557872782223</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>107</v>
@@ -6866,19 +6866,19 @@
         <v>119685</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>101000</v>
+        <v>100483</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>142074</v>
+        <v>141226</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1979070560700611</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1670110025731071</v>
+        <v>0.1661558010676286</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2349293600232738</v>
+        <v>0.2335276608034942</v>
       </c>
     </row>
     <row r="23">
@@ -6970,19 +6970,19 @@
         <v>50855</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39270</v>
+        <v>39646</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>63761</v>
+        <v>64252</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3110219511909271</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2401699550880754</v>
+        <v>0.2424701531549387</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3899513898293524</v>
+        <v>0.3929551926951015</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -6991,19 +6991,19 @@
         <v>35791</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25975</v>
+        <v>25476</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47355</v>
+        <v>47022</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3380330641580196</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2453310445711961</v>
+        <v>0.2406144248240599</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4472527750009761</v>
+        <v>0.4441129135643624</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>74</v>
@@ -7012,19 +7012,19 @@
         <v>86646</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>70665</v>
+        <v>70032</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>104312</v>
+        <v>102410</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3216382157861906</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.262314189125104</v>
+        <v>0.2599653625904716</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3872166340235059</v>
+        <v>0.3801568182368969</v>
       </c>
     </row>
     <row r="25">
@@ -7041,19 +7041,19 @@
         <v>37720</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27740</v>
+        <v>27418</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49929</v>
+        <v>49813</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2306864255151005</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1696554031219174</v>
+        <v>0.1676822467418137</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3053572126969837</v>
+        <v>0.3046484066140902</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -7062,19 +7062,19 @@
         <v>29438</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20103</v>
+        <v>19842</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39535</v>
+        <v>40441</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2780331990849153</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1898654867823988</v>
+        <v>0.1874017111692262</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3733954172184472</v>
+        <v>0.3819550394753439</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -7083,19 +7083,19 @@
         <v>67157</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53292</v>
+        <v>51670</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81798</v>
+        <v>82852</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2492952801950818</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1978254456066788</v>
+        <v>0.1918029209749412</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3036441647381269</v>
+        <v>0.307553926584765</v>
       </c>
     </row>
     <row r="26">
@@ -7112,19 +7112,19 @@
         <v>45441</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33152</v>
+        <v>33279</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>58017</v>
+        <v>57880</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2779071035047046</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2027531067807039</v>
+        <v>0.2035305300796468</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3548248382601187</v>
+        <v>0.3539859089539173</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -7133,19 +7133,19 @@
         <v>18428</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11298</v>
+        <v>11665</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26850</v>
+        <v>28107</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1740432483912186</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1067043776641986</v>
+        <v>0.1101738613658655</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2535934997088731</v>
+        <v>0.2654608252934498</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>57</v>
@@ -7154,19 +7154,19 @@
         <v>63868</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>50484</v>
+        <v>51631</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>78643</v>
+        <v>79492</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2370851585107226</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1874008342578187</v>
+        <v>0.1916606715364547</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2919299535256556</v>
+        <v>0.2950826152338629</v>
       </c>
     </row>
     <row r="27">
@@ -7183,19 +7183,19 @@
         <v>29495</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>20327</v>
+        <v>19256</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>40458</v>
+        <v>41416</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1803845197892678</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1243149345867253</v>
+        <v>0.1177686191777912</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2474360665448656</v>
+        <v>0.2532955497445818</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>18</v>
@@ -7204,19 +7204,19 @@
         <v>22223</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13528</v>
+        <v>13871</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>32120</v>
+        <v>32474</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2098904883658466</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1277684723597457</v>
+        <v>0.1310117803509639</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3033688036005373</v>
+        <v>0.3067080279412295</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>44</v>
@@ -7225,19 +7225,19 @@
         <v>51718</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>38659</v>
+        <v>39188</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>66251</v>
+        <v>66584</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1919813455080049</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1435063803400271</v>
+        <v>0.1454707549378208</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2459303366320644</v>
+        <v>0.2471680261789894</v>
       </c>
     </row>
     <row r="28">
@@ -7329,19 +7329,19 @@
         <v>408195</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>372621</v>
+        <v>374668</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>444644</v>
+        <v>442875</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2902251139270288</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2649324885118596</v>
+        <v>0.2663876444854463</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3161404746693172</v>
+        <v>0.3148830180255334</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>330</v>
@@ -7350,19 +7350,19 @@
         <v>336799</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>308693</v>
+        <v>308008</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>367865</v>
+        <v>368197</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.327307581456728</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2999942241401788</v>
+        <v>0.2993276791951001</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.357497823279049</v>
+        <v>0.3578208354223314</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>709</v>
@@ -7371,19 +7371,19 @@
         <v>744993</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>702121</v>
+        <v>698161</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>791899</v>
+        <v>794388</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3058926089739201</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2882894525233535</v>
+        <v>0.2866633718457296</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3251519995453407</v>
+        <v>0.3261739903479636</v>
       </c>
     </row>
     <row r="30">
@@ -7400,19 +7400,19 @@
         <v>347511</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>318679</v>
+        <v>315728</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>383158</v>
+        <v>379553</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2470793270514087</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2265800547982856</v>
+        <v>0.2244815257651569</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2724239893269121</v>
+        <v>0.2698609293898344</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>255</v>
@@ -7421,19 +7421,19 @@
         <v>259683</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>231215</v>
+        <v>234033</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>287848</v>
+        <v>291398</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2523652826504991</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2246992430137036</v>
+        <v>0.2274377127735916</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2797362738947321</v>
+        <v>0.2831860697956315</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>580</v>
@@ -7442,19 +7442,19 @@
         <v>607195</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>566691</v>
+        <v>563729</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>650117</v>
+        <v>654248</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2493126650325047</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2326818832139389</v>
+        <v>0.2314657271841937</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2669366407829091</v>
+        <v>0.268632918839899</v>
       </c>
     </row>
     <row r="31">
@@ -7471,19 +7471,19 @@
         <v>381662</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>347044</v>
+        <v>348857</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>418665</v>
+        <v>417952</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2713603639430281</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2467470361236264</v>
+        <v>0.2480361134602904</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2976696633163836</v>
+        <v>0.2971626966193489</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>227</v>
@@ -7492,19 +7492,19 @@
         <v>227517</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>201033</v>
+        <v>199886</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>255927</v>
+        <v>252880</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2211053189153635</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1953673433410513</v>
+        <v>0.1942529696735029</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2487149967564384</v>
+        <v>0.2457533538743318</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>586</v>
@@ -7513,19 +7513,19 @@
         <v>609179</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>566224</v>
+        <v>567226</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>651826</v>
+        <v>657112</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2501274007260676</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.232490194904198</v>
+        <v>0.2329015228973913</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2676381495393615</v>
+        <v>0.2698085960286047</v>
       </c>
     </row>
     <row r="32">
@@ -7542,19 +7542,19 @@
         <v>269108</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>237960</v>
+        <v>242123</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>303553</v>
+        <v>301110</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1913351950785344</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.169188598651668</v>
+        <v>0.1721488010813191</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2158251094926519</v>
+        <v>0.2140881443998357</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>193</v>
@@ -7563,19 +7563,19 @@
         <v>204999</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>181448</v>
+        <v>178353</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>233495</v>
+        <v>230388</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1992218169774094</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.176334648229022</v>
+        <v>0.1733267014240606</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2269150917880935</v>
+        <v>0.2238951230217499</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>438</v>
@@ -7584,19 +7584,19 @@
         <v>474107</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>435648</v>
+        <v>432515</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>513987</v>
+        <v>515940</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1946673252675075</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1788762360271926</v>
+        <v>0.1775895251264615</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2110417275220478</v>
+        <v>0.2118439455254782</v>
       </c>
     </row>
     <row r="33">
@@ -7929,19 +7929,19 @@
         <v>9877</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2316</v>
+        <v>2592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21728</v>
+        <v>22418</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2062525518003469</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04835488268505105</v>
+        <v>0.05412878868067072</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4537169096386631</v>
+        <v>0.4681138863122373</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -7950,19 +7950,19 @@
         <v>7689</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1796</v>
+        <v>2891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16767</v>
+        <v>17809</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.162299867105022</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03790670429023892</v>
+        <v>0.06102792298639903</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3539300783382222</v>
+        <v>0.3759072008713017</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -7971,19 +7971,19 @@
         <v>17566</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6940</v>
+        <v>7377</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31742</v>
+        <v>30895</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1843945900256562</v>
+        <v>0.1843945900256561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0728480573158653</v>
+        <v>0.07744135176246876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3331992248401784</v>
+        <v>0.3243075114851862</v>
       </c>
     </row>
     <row r="5">
@@ -8000,19 +8000,19 @@
         <v>9669</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3570</v>
+        <v>3407</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19355</v>
+        <v>20146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2019094551295338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0745573336428228</v>
+        <v>0.071152145025209</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4041610877093106</v>
+        <v>0.4206763326533289</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -8021,19 +8021,19 @@
         <v>15663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8249</v>
+        <v>9377</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24082</v>
+        <v>24626</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3306203586215184</v>
+        <v>0.3306203586215183</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1741249644863864</v>
+        <v>0.197931335931153</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5083202460471269</v>
+        <v>0.5198019765031606</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -8042,19 +8042,19 @@
         <v>25332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15343</v>
+        <v>15749</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39014</v>
+        <v>37208</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2659182415783159</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1610526898668176</v>
+        <v>0.1653227369255702</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4095394112399828</v>
+        <v>0.3905827952160896</v>
       </c>
     </row>
     <row r="6">
@@ -8071,19 +8071,19 @@
         <v>19429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9848</v>
+        <v>10036</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31930</v>
+        <v>30478</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4057177662755962</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2056337844253555</v>
+        <v>0.2095757992309484</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6667417313784795</v>
+        <v>0.6364374936712789</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -8092,19 +8092,19 @@
         <v>13782</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6654</v>
+        <v>6559</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22094</v>
+        <v>22948</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2909054459482518</v>
+        <v>0.2909054459482517</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1404612833761088</v>
+        <v>0.1384440548449837</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4663722932311957</v>
+        <v>0.484389615692679</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -8113,19 +8113,19 @@
         <v>33211</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21566</v>
+        <v>20342</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48159</v>
+        <v>47590</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3486208374673867</v>
+        <v>0.3486208374673866</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2263791902879868</v>
+        <v>0.2135312078975737</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5055325713824492</v>
+        <v>0.499561182318704</v>
       </c>
     </row>
     <row r="7">
@@ -8142,19 +8142,19 @@
         <v>8913</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2178</v>
+        <v>1936</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22673</v>
+        <v>22938</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1861202267945231</v>
+        <v>0.186120226794523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04547332813185553</v>
+        <v>0.0404293262880105</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4734418163069837</v>
+        <v>0.4789740269274063</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -8163,19 +8163,19 @@
         <v>10241</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4319</v>
+        <v>3999</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20730</v>
+        <v>19560</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2161743283252081</v>
+        <v>0.216174328325208</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09116290043896223</v>
+        <v>0.08441143892649254</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4375705909866334</v>
+        <v>0.4128768289052325</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -8184,19 +8184,19 @@
         <v>19154</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9504</v>
+        <v>9510</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34932</v>
+        <v>34879</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2010663309286412</v>
+        <v>0.2010663309286411</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09976322876651958</v>
+        <v>0.09983132716122557</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3666890334163985</v>
+        <v>0.3661325465732082</v>
       </c>
     </row>
     <row r="8">
@@ -8288,19 +8288,19 @@
         <v>45739</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30606</v>
+        <v>31196</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>64243</v>
+        <v>63136</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2303795578596858</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1541552238706847</v>
+        <v>0.1571280259721623</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3235774546585948</v>
+        <v>0.3180014684916749</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>46</v>
@@ -8309,19 +8309,19 @@
         <v>50361</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38220</v>
+        <v>38055</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>63166</v>
+        <v>62950</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3153180898066877</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2392977552637574</v>
+        <v>0.2382679414581193</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3954904124691412</v>
+        <v>0.3941349457428697</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>71</v>
@@ -8330,19 +8330,19 @@
         <v>96100</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>77963</v>
+        <v>74690</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>120062</v>
+        <v>117485</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2682465702275363</v>
+        <v>0.2682465702275362</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2176192120002875</v>
+        <v>0.2084839281088481</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3351309037043882</v>
+        <v>0.3279382565435157</v>
       </c>
     </row>
     <row r="10">
@@ -8359,19 +8359,19 @@
         <v>48622</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34747</v>
+        <v>33781</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67565</v>
+        <v>67254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2449004607134052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1750154077626993</v>
+        <v>0.1701478160419643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3403121614040249</v>
+        <v>0.3387465008615085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -8380,19 +8380,19 @@
         <v>48317</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36504</v>
+        <v>37772</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60074</v>
+        <v>60663</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3025211319255927</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2285577345724033</v>
+        <v>0.2364926001620412</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3761291497568608</v>
+        <v>0.3798162706995756</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -8401,19 +8401,19 @@
         <v>96939</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79517</v>
+        <v>78576</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118737</v>
+        <v>117128</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2705887157305414</v>
+        <v>0.2705887157305413</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2219580872568594</v>
+        <v>0.2193306278278801</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.331432566469384</v>
+        <v>0.3269401521279184</v>
       </c>
     </row>
     <row r="11">
@@ -8430,19 +8430,19 @@
         <v>61272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46724</v>
+        <v>45460</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>77819</v>
+        <v>78457</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3086156713203924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2353404312411248</v>
+        <v>0.228974346563547</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3919586216669748</v>
+        <v>0.3951713972329448</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -8451,19 +8451,19 @@
         <v>31934</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21927</v>
+        <v>21539</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42427</v>
+        <v>42741</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1999424392139409</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1372846358133389</v>
+        <v>0.1348576333831235</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2656379058755206</v>
+        <v>0.2676073526987294</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>75</v>
@@ -8472,19 +8472,19 @@
         <v>93206</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>77082</v>
+        <v>74781</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>114594</v>
+        <v>112475</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2601673342712312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2151595085403803</v>
+        <v>0.2087368819986038</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3198689889696646</v>
+        <v>0.3139538688960464</v>
       </c>
     </row>
     <row r="12">
@@ -8501,19 +8501,19 @@
         <v>42905</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27303</v>
+        <v>27728</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>62381</v>
+        <v>61914</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2161043101065167</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1375185254397944</v>
+        <v>0.1396594706947632</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3141996506046077</v>
+        <v>0.3118456617462673</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -8522,19 +8522,19 @@
         <v>29103</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19461</v>
+        <v>19792</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>41537</v>
+        <v>41165</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1822183390537787</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1218450708484465</v>
+        <v>0.1239177075164015</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2600660333076505</v>
+        <v>0.2577382250149457</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -8543,19 +8543,19 @@
         <v>72008</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>53675</v>
+        <v>52969</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92802</v>
+        <v>93632</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2009973797706911</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1498228465429549</v>
+        <v>0.1478527931155776</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2590390465940948</v>
+        <v>0.2613555487396498</v>
       </c>
     </row>
     <row r="13">
@@ -8647,19 +8647,19 @@
         <v>85198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70545</v>
+        <v>69662</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103302</v>
+        <v>102721</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.31096754606518</v>
+        <v>0.3109675460651799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.257486805687714</v>
+        <v>0.2542623842136141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3770490726475301</v>
+        <v>0.3749267922049421</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -8668,19 +8668,19 @@
         <v>55077</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44841</v>
+        <v>45479</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65940</v>
+        <v>68094</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3080856927796843</v>
+        <v>0.3080856927796844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2508297779015616</v>
+        <v>0.2543978619980811</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3688533592437814</v>
+        <v>0.380899624887354</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -8689,19 +8689,19 @@
         <v>140274</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120695</v>
+        <v>120804</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>160367</v>
+        <v>160964</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3098296194559645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2665845818673789</v>
+        <v>0.2668249883364477</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3542091197247076</v>
+        <v>0.3555273895470172</v>
       </c>
     </row>
     <row r="15">
@@ -8718,19 +8718,19 @@
         <v>71132</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>55210</v>
+        <v>56221</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>85809</v>
+        <v>86716</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.259629598715528</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2015147232582919</v>
+        <v>0.2052047173248311</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3132007380179579</v>
+        <v>0.3165092999306392</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>70</v>
@@ -8739,19 +8739,19 @@
         <v>47121</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>37296</v>
+        <v>38505</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>57735</v>
+        <v>58341</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2635834481723519</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2086261264652169</v>
+        <v>0.2153859999103437</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3229553600111904</v>
+        <v>0.3263425061587599</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>137</v>
@@ -8760,19 +8760,19 @@
         <v>118253</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>99855</v>
+        <v>100879</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>136244</v>
+        <v>136538</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2611908129967672</v>
+        <v>0.2611908129967671</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.220553016251704</v>
+        <v>0.2228162752862614</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3009268234324877</v>
+        <v>0.3015770007570803</v>
       </c>
     </row>
     <row r="16">
@@ -8789,19 +8789,19 @@
         <v>77699</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63881</v>
+        <v>62750</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95079</v>
+        <v>95250</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.283597241329248</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2331611467967557</v>
+        <v>0.2290354507217439</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3470340025401492</v>
+        <v>0.3476566576798746</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -8810,19 +8810,19 @@
         <v>47267</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37697</v>
+        <v>37866</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57876</v>
+        <v>57155</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2644008200932149</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2108692254712109</v>
+        <v>0.2118147176025499</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3237416011635977</v>
+        <v>0.3197119395359998</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -8831,19 +8831,19 @@
         <v>124966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106357</v>
+        <v>105652</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144335</v>
+        <v>145295</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2760173556230148</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2349159507011667</v>
+        <v>0.2333573094292511</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3187976146027421</v>
+        <v>0.3209185558415458</v>
       </c>
     </row>
     <row r="17">
@@ -8860,19 +8860,19 @@
         <v>39947</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28612</v>
+        <v>28198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54088</v>
+        <v>54294</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.145805613890044</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1044338643249567</v>
+        <v>0.1029202021401315</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1974194430719753</v>
+        <v>0.1981697813889863</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -8881,19 +8881,19 @@
         <v>29306</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21574</v>
+        <v>21083</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38421</v>
+        <v>38320</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1639300389547489</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1206779969429106</v>
+        <v>0.1179339649947765</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2149197993994655</v>
+        <v>0.2143545524466908</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -8902,19 +8902,19 @@
         <v>69253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54483</v>
+        <v>54472</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85423</v>
+        <v>87454</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1529622119242534</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1203396022730842</v>
+        <v>0.120315257377669</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1886781492103073</v>
+        <v>0.1931625698428839</v>
       </c>
     </row>
     <row r="18">
@@ -9006,19 +9006,19 @@
         <v>83274</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67865</v>
+        <v>68772</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>98929</v>
+        <v>99430</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2910511027475352</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2371949589090885</v>
+        <v>0.2403666768387098</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3457670907349011</v>
+        <v>0.3475180463989605</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -9027,19 +9027,19 @@
         <v>64624</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53608</v>
+        <v>54469</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>75178</v>
+        <v>76053</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2885151526105277</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2393327180959837</v>
+        <v>0.2431797694174657</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3356342702368406</v>
+        <v>0.339541140124574</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>170</v>
@@ -9048,19 +9048,19 @@
         <v>147898</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127674</v>
+        <v>128842</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>167693</v>
+        <v>167951</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2899375564952447</v>
+        <v>0.2899375564952446</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2502918804176004</v>
+        <v>0.2525813228851174</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3287435818211535</v>
+        <v>0.3292489451917277</v>
       </c>
     </row>
     <row r="20">
@@ -9077,19 +9077,19 @@
         <v>77725</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61933</v>
+        <v>62926</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>94890</v>
+        <v>93001</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2716581882191342</v>
+        <v>0.2716581882191341</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2164622389283165</v>
+        <v>0.2199348068918451</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3316514449792852</v>
+        <v>0.3250504602004229</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>116</v>
@@ -9098,19 +9098,19 @@
         <v>69227</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57748</v>
+        <v>59029</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79746</v>
+        <v>81243</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3090654406078976</v>
+        <v>0.3090654406078977</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2578189386351475</v>
+        <v>0.2635353149239825</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3560259789677507</v>
+        <v>0.3627116611184674</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>193</v>
@@ -9119,19 +9119,19 @@
         <v>146952</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>129912</v>
+        <v>127547</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>166139</v>
+        <v>165051</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2880838683214836</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2546783259061093</v>
+        <v>0.2500428914427125</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3256982660538855</v>
+        <v>0.3235655196894642</v>
       </c>
     </row>
     <row r="21">
@@ -9148,19 +9148,19 @@
         <v>80914</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>66550</v>
+        <v>65659</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>97376</v>
+        <v>98179</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2828019592278183</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2325995147698943</v>
+        <v>0.2294855888963385</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3403401906552414</v>
+        <v>0.3431452716118832</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>88</v>
@@ -9169,19 +9169,19 @@
         <v>54724</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44866</v>
+        <v>46074</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>65677</v>
+        <v>65886</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2443151386056524</v>
+        <v>0.2443151386056525</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2003073193253637</v>
+        <v>0.2056978392096704</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2932179647493011</v>
+        <v>0.2941477510365288</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>167</v>
@@ -9190,19 +9190,19 @@
         <v>135637</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>116034</v>
+        <v>117736</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>153727</v>
+        <v>155886</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2659022362242091</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2274722654008354</v>
+        <v>0.2308081758783758</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.301364866156267</v>
+        <v>0.3055976502989141</v>
       </c>
     </row>
     <row r="22">
@@ -9219,19 +9219,19 @@
         <v>44201</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33210</v>
+        <v>31072</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59076</v>
+        <v>58238</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1544887498055125</v>
+        <v>0.1544887498055124</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1160709839748652</v>
+        <v>0.1086004165873746</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2064758745845738</v>
+        <v>0.2035467056845474</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -9240,19 +9240,19 @@
         <v>35413</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27856</v>
+        <v>26557</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45092</v>
+        <v>44126</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1581042681759221</v>
+        <v>0.1581042681759222</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.124362761989724</v>
+        <v>0.1185637910427125</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2013163354924009</v>
+        <v>0.1969994930822534</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -9261,19 +9261,19 @@
         <v>79615</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>65431</v>
+        <v>64757</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96107</v>
+        <v>96298</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1560763389590627</v>
+        <v>0.1560763389590626</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.12826944534656</v>
+        <v>0.1269494082099648</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1884069435748802</v>
+        <v>0.1887816394116883</v>
       </c>
     </row>
     <row r="23">
@@ -9365,19 +9365,19 @@
         <v>49059</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37627</v>
+        <v>39688</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>61918</v>
+        <v>61151</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3040883814212345</v>
+        <v>0.3040883814212344</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2332274442265674</v>
+        <v>0.2459981978141693</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3837922336166451</v>
+        <v>0.3790379553478951</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -9386,19 +9386,19 @@
         <v>29857</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22745</v>
+        <v>23562</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37793</v>
+        <v>36962</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2942327919895796</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2241528878933052</v>
+        <v>0.2321997704597304</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3724487532042365</v>
+        <v>0.364256568184473</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>96</v>
@@ -9407,19 +9407,19 @@
         <v>78916</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>66633</v>
+        <v>65076</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>92512</v>
+        <v>92593</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3002830040411297</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2535457028230951</v>
+        <v>0.2476213765006556</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3520154565991145</v>
+        <v>0.3523244611426025</v>
       </c>
     </row>
     <row r="25">
@@ -9436,19 +9436,19 @@
         <v>43454</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33045</v>
+        <v>32937</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54295</v>
+        <v>54001</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2693454615073956</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2048226703856441</v>
+        <v>0.2041553424983978</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3365379712490634</v>
+        <v>0.3347181874102255</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -9457,19 +9457,19 @@
         <v>30999</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23600</v>
+        <v>24303</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37930</v>
+        <v>38500</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3054852255760244</v>
+        <v>0.3054852255760245</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2325693839298237</v>
+        <v>0.239502555466216</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3737954599099531</v>
+        <v>0.3794116229787462</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>102</v>
@@ -9478,19 +9478,19 @@
         <v>74453</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>62408</v>
+        <v>62119</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>86926</v>
+        <v>88406</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2832995168850853</v>
+        <v>0.2832995168850852</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2374671370481</v>
+        <v>0.2363697780167082</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.330759608403086</v>
+        <v>0.3363913762980862</v>
       </c>
     </row>
     <row r="26">
@@ -9507,19 +9507,19 @@
         <v>48552</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38424</v>
+        <v>38263</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>60358</v>
+        <v>60841</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3009454526794278</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.238166343290335</v>
+        <v>0.2371704374896499</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3741213829856563</v>
+        <v>0.377116002562237</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>43</v>
@@ -9528,19 +9528,19 @@
         <v>24781</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19012</v>
+        <v>18351</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31957</v>
+        <v>31876</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.244217124523959</v>
+        <v>0.2442171245239591</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1873569181086488</v>
+        <v>0.1808491705577031</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.314927108641275</v>
+        <v>0.3141290689293892</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -9549,19 +9549,19 @@
         <v>73334</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>61623</v>
+        <v>59220</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>86431</v>
+        <v>86528</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2790418721507355</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2344813629593916</v>
+        <v>0.2253391478755628</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.32887862247626</v>
+        <v>0.3292465387328969</v>
       </c>
     </row>
     <row r="27">
@@ -9578,19 +9578,19 @@
         <v>20267</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13049</v>
+        <v>12879</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30209</v>
+        <v>29640</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.125620704391942</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08088237118536382</v>
+        <v>0.07982906379211079</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1872433351571295</v>
+        <v>0.1837177858898144</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>24</v>
@@ -9599,19 +9599,19 @@
         <v>15836</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>10709</v>
+        <v>10984</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>21761</v>
+        <v>22410</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1560648579104368</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1055360530597527</v>
+        <v>0.1082495908100583</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2144511684441209</v>
+        <v>0.220849511342788</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>43</v>
@@ -9620,19 +9620,19 @@
         <v>36103</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>27391</v>
+        <v>26408</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>46803</v>
+        <v>47614</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1373756069230497</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1042247590820986</v>
+        <v>0.1004850892650298</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1780914360865214</v>
+        <v>0.1811749480510607</v>
       </c>
     </row>
     <row r="28">
@@ -9724,19 +9724,19 @@
         <v>273147</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>243207</v>
+        <v>241229</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>307660</v>
+        <v>303390</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2822206326752359</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2512855186970381</v>
+        <v>0.2492425250434919</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3178797474157617</v>
+        <v>0.3134681649877723</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>262</v>
@@ -9745,19 +9745,19 @@
         <v>207608</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>187458</v>
+        <v>185485</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>230511</v>
+        <v>230709</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2918612785324515</v>
+        <v>0.2918612785324514</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2635339576173394</v>
+        <v>0.2607610248251095</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3240593246928456</v>
+        <v>0.3243379371152393</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>486</v>
@@ -9766,19 +9766,19 @@
         <v>480755</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>440195</v>
+        <v>444701</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>517954</v>
+        <v>522406</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2863045573047168</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2621499489701717</v>
+        <v>0.2648334387200088</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3084579207283835</v>
+        <v>0.3111092318589951</v>
       </c>
     </row>
     <row r="30">
@@ -9795,19 +9795,19 @@
         <v>250603</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>222931</v>
+        <v>224362</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>284620</v>
+        <v>285384</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.258927621380961</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2303367048634198</v>
+        <v>0.2318143457941676</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2940742487375755</v>
+        <v>0.2948636520968899</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>303</v>
@@ -9816,19 +9816,19 @@
         <v>211327</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>189824</v>
+        <v>188318</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>234471</v>
+        <v>232346</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2970902529942834</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2668598411706016</v>
+        <v>0.2647428420170861</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3296268946130682</v>
+        <v>0.326639645269151</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>531</v>
@@ -9837,19 +9837,19 @@
         <v>461930</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>426356</v>
+        <v>429454</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>499586</v>
+        <v>501992</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2750938942095394</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2539081977384074</v>
+        <v>0.2557532412398997</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.297518879356303</v>
+        <v>0.2989516876355978</v>
       </c>
     </row>
     <row r="31">
@@ -9866,19 +9866,19 @@
         <v>287866</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>256608</v>
+        <v>254130</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>319060</v>
+        <v>316450</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2974285293133093</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2651321490852073</v>
+        <v>0.2625721361369547</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3296586744606965</v>
+        <v>0.3269622314619328</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>236</v>
@@ -9887,19 +9887,19 @@
         <v>172488</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>152844</v>
+        <v>151060</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>194375</v>
+        <v>192984</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2424889941771688</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2148722068984314</v>
+        <v>0.212364467923391</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2732582276671274</v>
+        <v>0.2713025379902851</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>490</v>
@@ -9908,19 +9908,19 @@
         <v>460354</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>422473</v>
+        <v>423826</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>497512</v>
+        <v>496882</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2741553042620247</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2515960791285509</v>
+        <v>0.2524014941803887</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2962839064358083</v>
+        <v>0.2959087809655132</v>
       </c>
     </row>
     <row r="32">
@@ -9937,19 +9937,19 @@
         <v>156233</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>129132</v>
+        <v>130623</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>185008</v>
+        <v>189702</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1614232166304938</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1334214218525878</v>
+        <v>0.1349622629027914</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1911538254950868</v>
+        <v>0.1960037910048289</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>143</v>
@@ -9958,19 +9958,19 @@
         <v>119900</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>102491</v>
+        <v>99941</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>141503</v>
+        <v>137937</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1685594742960965</v>
+        <v>0.1685594742960964</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1440855527452742</v>
+        <v>0.1405000772995003</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1989295346327516</v>
+        <v>0.1939157840973183</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>256</v>
@@ -9979,19 +9979,19 @@
         <v>276134</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>244886</v>
+        <v>242661</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>312807</v>
+        <v>311063</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1644462442237191</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1458370760877066</v>
+        <v>0.1445122733038746</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1862864245142747</v>
+        <v>0.185247812064094</v>
       </c>
     </row>
     <row r="33">
